--- a/TM.RestHour/Uploads/IMOcrewlistForm5 (1).xlsx
+++ b/TM.RestHour/Uploads/IMOcrewlistForm5 (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A83A2C4-6375-4432-982D-1C4D91ADF2EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FBBC59-AD04-4254-A68C-09861F66CD48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Arrival</t>
   </si>
@@ -140,21 +140,12 @@
     <t xml:space="preserve">Can add more departments in the highlighted region </t>
   </si>
   <si>
-    <t>fghhfgh</t>
-  </si>
-  <si>
-    <t>fgfgh</t>
-  </si>
-  <si>
     <t>Master</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>21-Mar-1987</t>
-  </si>
-  <si>
     <t>Ichapur</t>
   </si>
   <si>
@@ -168,6 +159,24 @@
   </si>
   <si>
     <t>West Bangal</t>
+  </si>
+  <si>
+    <t>Das</t>
+  </si>
+  <si>
+    <t>21-Jan-1996</t>
+  </si>
+  <si>
+    <t>09-Jan-2040</t>
+  </si>
+  <si>
+    <t>Somnath2</t>
+  </si>
+  <si>
+    <t>22-Jan-2021</t>
+  </si>
+  <si>
+    <t>22-Jan-2029</t>
   </si>
 </sst>
 </file>
@@ -428,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -501,6 +510,9 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -976,7 +988,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,63 +1016,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="48"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="5"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7" t="s">
@@ -1073,107 +1085,107 @@
       <c r="T5" s="8"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="54" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="63" t="s">
+      <c r="G6" s="56"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="65"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="63" t="s">
+      <c r="M6" s="66"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
       <c r="T6" s="9"/>
     </row>
     <row r="7" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
       <c r="T7" s="9"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="54" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="63" t="s">
+      <c r="G8" s="56"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="63" t="s">
+      <c r="M8" s="47"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
       <c r="T8" s="9"/>
     </row>
     <row r="9" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
       <c r="T9" s="9"/>
     </row>
     <row r="10" spans="1:24" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1192,25 +1204,25 @@
       <c r="E10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="70"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="69" t="s">
+      <c r="I10" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="70"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="69" t="s">
+      <c r="M10" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="70"/>
+      <c r="N10" s="71"/>
       <c r="O10" s="12" t="s">
         <v>18</v>
       </c>
@@ -1236,50 +1248,50 @@
         <v>1</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="E11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="I11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="16" t="s">
+      <c r="M11" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="N11" s="31"/>
+      <c r="O11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="30"/>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="P11" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="Q11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" s="17" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T11" s="18"/>
       <c r="W11" s="19" t="s">
@@ -1294,15 +1306,15 @@
       <c r="C12" s="20"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
       <c r="O12" s="1"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
@@ -1321,15 +1333,15 @@
       <c r="C13" s="20"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
       <c r="L13" s="16"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
       <c r="O13" s="1"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
@@ -1348,15 +1360,15 @@
       <c r="C14" s="21"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="40"/>
       <c r="O14" s="1"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -1364,7 +1376,7 @@
       <c r="S14" s="17"/>
       <c r="T14" s="18"/>
       <c r="W14" s="22"/>
-      <c r="X14" s="28" t="s">
+      <c r="X14" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1376,15 +1388,15 @@
       <c r="C15" s="21"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="33"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="40"/>
       <c r="O15" s="1"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
@@ -1392,7 +1404,7 @@
       <c r="S15" s="17"/>
       <c r="T15" s="18"/>
       <c r="W15" s="22"/>
-      <c r="X15" s="28"/>
+      <c r="X15" s="29"/>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
@@ -1402,15 +1414,15 @@
       <c r="C16" s="23"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
       <c r="O16" s="1"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
@@ -1418,7 +1430,7 @@
       <c r="S16" s="17"/>
       <c r="T16" s="18"/>
       <c r="W16" s="22"/>
-      <c r="X16" s="28"/>
+      <c r="X16" s="29"/>
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
@@ -1428,15 +1440,15 @@
       <c r="C17" s="23"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="33"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="36"/>
       <c r="O17" s="1"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
@@ -1444,7 +1456,7 @@
       <c r="S17" s="17"/>
       <c r="T17" s="18"/>
       <c r="W17" s="22"/>
-      <c r="X17" s="28"/>
+      <c r="X17" s="29"/>
     </row>
     <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
@@ -1454,15 +1466,15 @@
       <c r="C18" s="23"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="36"/>
       <c r="O18" s="1"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
@@ -1478,15 +1490,15 @@
       <c r="C19" s="15"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="31"/>
       <c r="O19" s="1"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
@@ -1502,15 +1514,15 @@
       <c r="C20" s="15"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="31"/>
       <c r="O20" s="1"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
@@ -1526,15 +1538,15 @@
       <c r="C21" s="15"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="33"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
       <c r="O21" s="1"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
@@ -1550,15 +1562,15 @@
       <c r="C22" s="15"/>
       <c r="D22" s="1"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="33"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
       <c r="O22" s="1"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
@@ -1574,15 +1586,15 @@
       <c r="C23" s="15"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
       <c r="O23" s="1"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
@@ -1598,15 +1610,15 @@
       <c r="C24" s="15"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="33"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
       <c r="O24" s="1"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
@@ -1622,15 +1634,15 @@
       <c r="C25" s="17"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="33"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="34"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="17"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="33"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="34"/>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
@@ -1646,15 +1658,15 @@
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="33"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="34"/>
       <c r="H26" s="17"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="33"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="17"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="33"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="34"/>
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
@@ -1670,12 +1682,12 @@
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="33"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="34"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="33"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
       <c r="L27" s="17"/>
       <c r="M27" s="26"/>
       <c r="N27" s="27"/>
@@ -1694,12 +1706,12 @@
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="33"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="34"/>
       <c r="H28" s="17"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="33"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="17"/>
       <c r="M28" s="26"/>
       <c r="N28" s="27"/>
@@ -1718,12 +1730,12 @@
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="33"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="34"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="33"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
       <c r="L29" s="17"/>
       <c r="M29" s="26"/>
       <c r="N29" s="27"/>
@@ -1740,15 +1752,15 @@
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
       <c r="H30" s="17"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="68"/>
       <c r="L30" s="17"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="68"/>
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
@@ -1757,60 +1769,60 @@
       <c r="T30" s="18"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="57"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="57"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="59"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="60"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="60"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="62"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="89">
